--- a/data/PET_CRD_CRPDN_ADC_MBBL_A.xlsx
+++ b/data/PET_CRD_CRPDN_ADC_MBBL_A.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDCE06D-7A18-3248-8A07-9A21E274A4EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" activeTab="1"/>
+    <workbookView xWindow="4660" yWindow="460" windowWidth="16140" windowHeight="10000"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
     <sheet name="Data 1" sheetId="22" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="80000" iterateDelta="9.9999999999994451E-4"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -57,13 +66,13 @@
     <t>Release Date:</t>
   </si>
   <si>
-    <t>8/31/2018</t>
+    <t>7/31/2020</t>
   </si>
   <si>
     <t>Next Release Date:</t>
   </si>
   <si>
-    <t>8/30/2019</t>
+    <t>8/31/2020</t>
   </si>
   <si>
     <t>Excel File Name:</t>
@@ -93,7 +102,7 @@
     <t>(202) 586-8800</t>
   </si>
   <si>
-    <t>8/29/2018 1:15:13 PM</t>
+    <t>7/29/2020 10:00:03 PM</t>
   </si>
   <si>
     <t>Data 1: Crude Oil Production</t>
@@ -863,7 +872,7 @@
   </sheetPr>
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -937,7 +946,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="17">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>11</v>
@@ -1018,9 +1027,9 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:AR122"/>
+  <dimension ref="A1:AR124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1173,7 +1182,7 @@
       </c>
       <c r="AR2" s="10"/>
     </row>
-    <row r="3" spans="1:44" ht="65" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:44" ht="70" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>70</v>
       </c>
@@ -5548,7 +5557,7 @@
         <v>39994</v>
       </c>
       <c r="B113">
-        <v>1952420</v>
+        <v>1955194</v>
       </c>
       <c r="C113">
         <v>5509</v>
@@ -5569,7 +5578,7 @@
         <v>1501</v>
       </c>
       <c r="I113">
-        <v>212884</v>
+        <v>215367</v>
       </c>
       <c r="J113">
         <v>9099</v>
@@ -5593,13 +5602,13 @@
         <v>2239</v>
       </c>
       <c r="Q113">
-        <v>79318</v>
+        <v>79792</v>
       </c>
       <c r="R113">
         <v>4890</v>
       </c>
       <c r="S113">
-        <v>65165</v>
+        <v>67174</v>
       </c>
       <c r="T113">
         <v>1664</v>
@@ -5608,7 +5617,7 @@
         <v>268</v>
       </c>
       <c r="V113">
-        <v>1135794</v>
+        <v>1136054</v>
       </c>
       <c r="W113">
         <v>7189</v>
@@ -5617,25 +5626,25 @@
         <v>5755</v>
       </c>
       <c r="Y113">
-        <v>68822</v>
+        <v>68967</v>
       </c>
       <c r="Z113">
-        <v>23232</v>
+        <v>23328</v>
       </c>
       <c r="AA113">
         <v>61178</v>
       </c>
       <c r="AB113">
-        <v>399308</v>
+        <v>399327</v>
       </c>
       <c r="AC113">
         <v>570309</v>
       </c>
       <c r="AD113">
-        <v>132671</v>
+        <v>132702</v>
       </c>
       <c r="AE113">
-        <v>30365</v>
+        <v>30394</v>
       </c>
       <c r="AF113">
         <v>0</v>
@@ -5644,7 +5653,7 @@
         <v>27835</v>
       </c>
       <c r="AH113">
-        <v>22940</v>
+        <v>22942</v>
       </c>
       <c r="AI113">
         <v>51531</v>
@@ -5679,7 +5688,7 @@
         <v>40359</v>
       </c>
       <c r="B114">
-        <v>1999352</v>
+        <v>2001756</v>
       </c>
       <c r="C114">
         <v>7251</v>
@@ -5700,7 +5709,7 @@
         <v>1842</v>
       </c>
       <c r="I114">
-        <v>250602</v>
+        <v>252712</v>
       </c>
       <c r="J114">
         <v>9067</v>
@@ -5715,7 +5724,7 @@
         <v>2519</v>
       </c>
       <c r="N114">
-        <v>6978</v>
+        <v>6980</v>
       </c>
       <c r="O114">
         <v>146</v>
@@ -5724,13 +5733,13 @@
         <v>2331</v>
       </c>
       <c r="Q114">
-        <v>112524</v>
+        <v>112535</v>
       </c>
       <c r="R114">
         <v>4772</v>
       </c>
       <c r="S114">
-        <v>68098</v>
+        <v>70196</v>
       </c>
       <c r="T114">
         <v>1607</v>
@@ -5739,7 +5748,7 @@
         <v>257</v>
       </c>
       <c r="V114">
-        <v>1163155</v>
+        <v>1163410</v>
       </c>
       <c r="W114">
         <v>7155</v>
@@ -5748,25 +5757,25 @@
         <v>5733</v>
       </c>
       <c r="Y114">
-        <v>67273</v>
+        <v>67590</v>
       </c>
       <c r="Z114">
-        <v>24080</v>
+        <v>23981</v>
       </c>
       <c r="AA114">
         <v>65569</v>
       </c>
       <c r="AB114">
-        <v>426719</v>
+        <v>426755</v>
       </c>
       <c r="AC114">
         <v>566628</v>
       </c>
       <c r="AD114">
-        <v>136900</v>
+        <v>136939</v>
       </c>
       <c r="AE114">
-        <v>33014</v>
+        <v>33053</v>
       </c>
       <c r="AF114">
         <v>0</v>
@@ -5778,7 +5787,7 @@
         <v>24663</v>
       </c>
       <c r="AI114">
-        <v>53891</v>
+        <v>53890</v>
       </c>
       <c r="AJ114">
         <v>441444</v>
@@ -5810,7 +5819,7 @@
         <v>40724</v>
       </c>
       <c r="B115">
-        <v>2063809</v>
+        <v>2068316</v>
       </c>
       <c r="C115">
         <v>7986</v>
@@ -5831,7 +5840,7 @@
         <v>2146</v>
       </c>
       <c r="I115">
-        <v>300860</v>
+        <v>305261</v>
       </c>
       <c r="J115">
         <v>9158</v>
@@ -5855,13 +5864,13 @@
         <v>2544</v>
       </c>
       <c r="Q115">
-        <v>152387</v>
+        <v>152396</v>
       </c>
       <c r="R115">
         <v>4657</v>
       </c>
       <c r="S115">
-        <v>77208</v>
+        <v>81599</v>
       </c>
       <c r="T115">
         <v>1634</v>
@@ -5870,7 +5879,7 @@
         <v>296</v>
       </c>
       <c r="V115">
-        <v>1189147</v>
+        <v>1189341</v>
       </c>
       <c r="W115">
         <v>8373</v>
@@ -5879,25 +5888,25 @@
         <v>5877</v>
       </c>
       <c r="Y115">
-        <v>68958</v>
+        <v>69279</v>
       </c>
       <c r="Z115">
-        <v>24246</v>
+        <v>24043</v>
       </c>
       <c r="AA115">
-        <v>71506</v>
+        <v>71515</v>
       </c>
       <c r="AB115">
-        <v>529492</v>
+        <v>529563</v>
       </c>
       <c r="AC115">
-        <v>480695</v>
+        <v>480692</v>
       </c>
       <c r="AD115">
-        <v>144554</v>
+        <v>144465</v>
       </c>
       <c r="AE115">
-        <v>39472</v>
+        <v>39491</v>
       </c>
       <c r="AF115">
         <v>0</v>
@@ -5909,7 +5918,7 @@
         <v>26305</v>
       </c>
       <c r="AI115">
-        <v>54621</v>
+        <v>54515</v>
       </c>
       <c r="AJ115">
         <v>421263</v>
@@ -5941,7 +5950,7 @@
         <v>41090</v>
       </c>
       <c r="B116">
-        <v>2379555</v>
+        <v>2385703</v>
       </c>
       <c r="C116">
         <v>9398</v>
@@ -5962,7 +5971,7 @@
         <v>2573</v>
       </c>
       <c r="I116">
-        <v>413665</v>
+        <v>419903</v>
       </c>
       <c r="J116">
         <v>9733</v>
@@ -5977,7 +5986,7 @@
         <v>3198</v>
       </c>
       <c r="N116">
-        <v>7446</v>
+        <v>7449</v>
       </c>
       <c r="O116">
         <v>175</v>
@@ -5986,13 +5995,13 @@
         <v>3025</v>
       </c>
       <c r="Q116">
-        <v>242325</v>
+        <v>242332</v>
       </c>
       <c r="R116">
         <v>5111</v>
       </c>
       <c r="S116">
-        <v>94434</v>
+        <v>100661</v>
       </c>
       <c r="T116">
         <v>1754</v>
@@ -6001,7 +6010,7 @@
         <v>371</v>
       </c>
       <c r="V116">
-        <v>1384493</v>
+        <v>1384533</v>
       </c>
       <c r="W116">
         <v>9525</v>
@@ -6010,25 +6019,25 @@
         <v>6536</v>
       </c>
       <c r="Y116">
-        <v>70591</v>
+        <v>70995</v>
       </c>
       <c r="Z116">
-        <v>24593</v>
+        <v>24137</v>
       </c>
       <c r="AA116">
-        <v>85552</v>
+        <v>85551</v>
       </c>
       <c r="AB116">
-        <v>724422</v>
+        <v>724516</v>
       </c>
       <c r="AC116">
-        <v>463273</v>
+        <v>463272</v>
       </c>
       <c r="AD116">
-        <v>164288</v>
+        <v>164159</v>
       </c>
       <c r="AE116">
-        <v>49619</v>
+        <v>49647</v>
       </c>
       <c r="AF116">
         <v>0</v>
@@ -6040,7 +6049,7 @@
         <v>30210</v>
       </c>
       <c r="AI116">
-        <v>57966</v>
+        <v>57808</v>
       </c>
       <c r="AJ116">
         <v>407710</v>
@@ -6072,7 +6081,7 @@
         <v>41455</v>
       </c>
       <c r="B117">
-        <v>2725431</v>
+        <v>2734901</v>
       </c>
       <c r="C117">
         <v>15096</v>
@@ -6093,7 +6102,7 @@
         <v>7239</v>
       </c>
       <c r="I117">
-        <v>508897</v>
+        <v>518137</v>
       </c>
       <c r="J117">
         <v>9539</v>
@@ -6108,7 +6117,7 @@
         <v>2305</v>
       </c>
       <c r="N117">
-        <v>7097</v>
+        <v>7779</v>
       </c>
       <c r="O117">
         <v>199</v>
@@ -6117,13 +6126,13 @@
         <v>2808</v>
       </c>
       <c r="Q117">
-        <v>312294</v>
+        <v>312327</v>
       </c>
       <c r="R117">
         <v>8009</v>
       </c>
       <c r="S117">
-        <v>115220</v>
+        <v>123744</v>
       </c>
       <c r="T117">
         <v>1850</v>
@@ -6132,7 +6141,7 @@
         <v>334</v>
       </c>
       <c r="V117">
-        <v>1601621</v>
+        <v>1601854</v>
       </c>
       <c r="W117">
         <v>10408</v>
@@ -6141,25 +6150,25 @@
         <v>6640</v>
       </c>
       <c r="Y117">
-        <v>71938</v>
+        <v>72287</v>
       </c>
       <c r="Z117">
-        <v>24345</v>
+        <v>24057</v>
       </c>
       <c r="AA117">
         <v>102789</v>
       </c>
       <c r="AB117">
-        <v>927417</v>
+        <v>927645</v>
       </c>
       <c r="AC117">
-        <v>458085</v>
+        <v>458028</v>
       </c>
       <c r="AD117">
-        <v>194013</v>
+        <v>194011</v>
       </c>
       <c r="AE117">
-        <v>66222</v>
+        <v>66224</v>
       </c>
       <c r="AF117">
         <v>0</v>
@@ -6171,7 +6180,7 @@
         <v>35016</v>
       </c>
       <c r="AI117">
-        <v>63487</v>
+        <v>63482</v>
       </c>
       <c r="AJ117">
         <v>405803</v>
@@ -6203,7 +6212,7 @@
         <v>41820</v>
       </c>
       <c r="B118">
-        <v>3196889</v>
+        <v>3207209</v>
       </c>
       <c r="C118">
         <v>19775</v>
@@ -6224,7 +6233,7 @@
         <v>10330</v>
       </c>
       <c r="I118">
-        <v>626802</v>
+        <v>636357</v>
       </c>
       <c r="J118">
         <v>9546</v>
@@ -6239,7 +6248,7 @@
         <v>2626</v>
       </c>
       <c r="N118">
-        <v>7470</v>
+        <v>7416</v>
       </c>
       <c r="O118">
         <v>196</v>
@@ -6248,13 +6257,13 @@
         <v>3050</v>
       </c>
       <c r="Q118">
-        <v>394603</v>
+        <v>394605</v>
       </c>
       <c r="R118">
         <v>15078</v>
       </c>
       <c r="S118">
-        <v>140086</v>
+        <v>149693</v>
       </c>
       <c r="T118">
         <v>1798</v>
@@ -6263,7 +6272,7 @@
         <v>330</v>
       </c>
       <c r="V118">
-        <v>1903155</v>
+        <v>1903909</v>
       </c>
       <c r="W118">
         <v>9825</v>
@@ -6272,34 +6281,34 @@
         <v>6775</v>
       </c>
       <c r="Y118">
-        <v>69335</v>
+        <v>69443</v>
       </c>
       <c r="Z118">
-        <v>24346</v>
+        <v>24395</v>
       </c>
       <c r="AA118">
-        <v>125021</v>
+        <v>125061</v>
       </c>
       <c r="AB118">
-        <v>1157917</v>
+        <v>1158470</v>
       </c>
       <c r="AC118">
-        <v>509935</v>
+        <v>509941</v>
       </c>
       <c r="AD118">
-        <v>242474</v>
+        <v>242484</v>
       </c>
       <c r="AE118">
-        <v>95560</v>
+        <v>95559</v>
       </c>
       <c r="AF118">
         <v>0</v>
       </c>
       <c r="AG118">
-        <v>29897</v>
+        <v>29896</v>
       </c>
       <c r="AH118">
-        <v>40898</v>
+        <v>40909</v>
       </c>
       <c r="AI118">
         <v>76119</v>
@@ -6334,10 +6343,10 @@
         <v>42185</v>
       </c>
       <c r="B119">
-        <v>3442188</v>
+        <v>3445138</v>
       </c>
       <c r="C119">
-        <v>21161</v>
+        <v>21164</v>
       </c>
       <c r="D119">
         <v>2208</v>
@@ -6346,7 +6355,7 @@
         <v>286</v>
       </c>
       <c r="F119">
-        <v>7085</v>
+        <v>7088</v>
       </c>
       <c r="G119">
         <v>11</v>
@@ -6355,7 +6364,7 @@
         <v>11572</v>
       </c>
       <c r="I119">
-        <v>694827</v>
+        <v>693876</v>
       </c>
       <c r="J119">
         <v>9520</v>
@@ -6370,7 +6379,7 @@
         <v>2862</v>
       </c>
       <c r="N119">
-        <v>6652</v>
+        <v>6560</v>
       </c>
       <c r="O119">
         <v>149</v>
@@ -6379,13 +6388,13 @@
         <v>2910</v>
       </c>
       <c r="Q119">
-        <v>429583</v>
+        <v>429617</v>
       </c>
       <c r="R119">
         <v>26701</v>
       </c>
       <c r="S119">
-        <v>166801</v>
+        <v>165909</v>
       </c>
       <c r="T119">
         <v>1666</v>
@@ -6394,7 +6403,7 @@
         <v>296</v>
       </c>
       <c r="V119">
-        <v>2061991</v>
+        <v>2065269</v>
       </c>
       <c r="W119">
         <v>9694</v>
@@ -6403,49 +6412,49 @@
         <v>6229</v>
       </c>
       <c r="Y119">
-        <v>63610</v>
+        <v>64886</v>
       </c>
       <c r="Z119">
-        <v>24918</v>
+        <v>24923</v>
       </c>
       <c r="AA119">
-        <v>147663</v>
+        <v>147971</v>
       </c>
       <c r="AB119">
-        <v>1256974</v>
+        <v>1258637</v>
       </c>
       <c r="AC119">
-        <v>552902</v>
+        <v>552929</v>
       </c>
       <c r="AD119">
-        <v>274927</v>
+        <v>275568</v>
       </c>
       <c r="AE119">
-        <v>122792</v>
+        <v>123375</v>
       </c>
       <c r="AF119">
         <v>30</v>
       </c>
       <c r="AG119">
-        <v>28557</v>
+        <v>28556</v>
       </c>
       <c r="AH119">
-        <v>37139</v>
+        <v>37136</v>
       </c>
       <c r="AI119">
-        <v>86409</v>
+        <v>86472</v>
       </c>
       <c r="AJ119">
-        <v>389282</v>
+        <v>389261</v>
       </c>
       <c r="AK119">
-        <v>176235</v>
+        <v>176229</v>
       </c>
       <c r="AL119">
         <v>6686</v>
       </c>
       <c r="AM119">
-        <v>169549</v>
+        <v>169542</v>
       </c>
       <c r="AN119">
         <v>37</v>
@@ -6457,7 +6466,7 @@
         <v>281</v>
       </c>
       <c r="AQ119">
-        <v>11445</v>
+        <v>11430</v>
       </c>
     </row>
     <row r="120" spans="1:43" x14ac:dyDescent="0.15">
@@ -6465,10 +6474,10 @@
         <v>42551</v>
       </c>
       <c r="B120">
-        <v>3232025</v>
+        <v>3235183</v>
       </c>
       <c r="C120">
-        <v>16109</v>
+        <v>16075</v>
       </c>
       <c r="D120">
         <v>1934</v>
@@ -6477,7 +6486,7 @@
         <v>225</v>
       </c>
       <c r="F120">
-        <v>6306</v>
+        <v>6272</v>
       </c>
       <c r="G120">
         <v>7</v>
@@ -6486,7 +6495,7 @@
         <v>7636</v>
       </c>
       <c r="I120">
-        <v>615781</v>
+        <v>614187</v>
       </c>
       <c r="J120">
         <v>8639</v>
@@ -6495,13 +6504,13 @@
         <v>1817</v>
       </c>
       <c r="L120">
-        <v>37938</v>
+        <v>37942</v>
       </c>
       <c r="M120">
         <v>2595</v>
       </c>
       <c r="N120">
-        <v>5675</v>
+        <v>5634</v>
       </c>
       <c r="O120">
         <v>123</v>
@@ -6510,13 +6519,13 @@
         <v>2288</v>
       </c>
       <c r="Q120">
-        <v>377803</v>
+        <v>377809</v>
       </c>
       <c r="R120">
-        <v>21559</v>
+        <v>21600</v>
       </c>
       <c r="S120">
-        <v>155679</v>
+        <v>154077</v>
       </c>
       <c r="T120">
         <v>1407</v>
@@ -6525,7 +6534,7 @@
         <v>257</v>
       </c>
       <c r="V120">
-        <v>1985504</v>
+        <v>1988351</v>
       </c>
       <c r="W120">
         <v>8107</v>
@@ -6534,25 +6543,25 @@
         <v>5519</v>
       </c>
       <c r="Y120">
-        <v>56820</v>
+        <v>57067</v>
       </c>
       <c r="Z120">
-        <v>20385</v>
+        <v>20386</v>
       </c>
       <c r="AA120">
-        <v>146389</v>
+        <v>146392</v>
       </c>
       <c r="AB120">
-        <v>1163213</v>
+        <v>1165660</v>
       </c>
       <c r="AC120">
-        <v>585069</v>
+        <v>585219</v>
       </c>
       <c r="AD120">
-        <v>242956</v>
+        <v>244686</v>
       </c>
       <c r="AE120">
-        <v>116481</v>
+        <v>118118</v>
       </c>
       <c r="AF120">
         <v>215</v>
@@ -6561,22 +6570,22 @@
         <v>23178</v>
       </c>
       <c r="AH120">
-        <v>30529</v>
+        <v>30528</v>
       </c>
       <c r="AI120">
-        <v>72553</v>
+        <v>72647</v>
       </c>
       <c r="AJ120">
-        <v>371676</v>
+        <v>371884</v>
       </c>
       <c r="AK120">
-        <v>179169</v>
+        <v>179378</v>
       </c>
       <c r="AL120">
         <v>5643</v>
       </c>
       <c r="AM120">
-        <v>173527</v>
+        <v>173735</v>
       </c>
       <c r="AN120">
         <v>8</v>
@@ -6596,10 +6605,10 @@
         <v>42916</v>
       </c>
       <c r="B121">
-        <v>3413376</v>
+        <v>3413417</v>
       </c>
       <c r="C121">
-        <v>18156</v>
+        <v>18145</v>
       </c>
       <c r="D121">
         <v>1923</v>
@@ -6608,7 +6617,7 @@
         <v>184</v>
       </c>
       <c r="F121">
-        <v>6573</v>
+        <v>6562</v>
       </c>
       <c r="G121">
         <v>7</v>
@@ -6617,7 +6626,7 @@
         <v>9469</v>
       </c>
       <c r="I121">
-        <v>634514</v>
+        <v>632311</v>
       </c>
       <c r="J121">
         <v>8314</v>
@@ -6626,28 +6635,28 @@
         <v>1779</v>
       </c>
       <c r="L121">
-        <v>35822</v>
+        <v>35826</v>
       </c>
       <c r="M121">
         <v>2477</v>
       </c>
       <c r="N121">
-        <v>5319</v>
+        <v>5503</v>
       </c>
       <c r="O121">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P121">
         <v>2125</v>
       </c>
       <c r="Q121">
-        <v>392127</v>
+        <v>390680</v>
       </c>
       <c r="R121">
-        <v>18942</v>
+        <v>20010</v>
       </c>
       <c r="S121">
-        <v>165920</v>
+        <v>163907</v>
       </c>
       <c r="T121">
         <v>1305</v>
@@ -6656,7 +6665,7 @@
         <v>271</v>
       </c>
       <c r="V121">
-        <v>2138715</v>
+        <v>2139140</v>
       </c>
       <c r="W121">
         <v>6827</v>
@@ -6665,55 +6674,55 @@
         <v>5288</v>
       </c>
       <c r="Y121">
-        <v>52024</v>
+        <v>52248</v>
       </c>
       <c r="Z121">
-        <v>17781</v>
+        <v>17783</v>
       </c>
       <c r="AA121">
-        <v>171440</v>
+        <v>172598</v>
       </c>
       <c r="AB121">
-        <v>1272575</v>
+        <v>1271144</v>
       </c>
       <c r="AC121">
-        <v>612781</v>
+        <v>613252</v>
       </c>
       <c r="AD121">
-        <v>261404</v>
+        <v>263859</v>
       </c>
       <c r="AE121">
-        <v>130732</v>
+        <v>132894</v>
       </c>
       <c r="AF121">
         <v>91</v>
       </c>
       <c r="AG121">
-        <v>20706</v>
+        <v>20717</v>
       </c>
       <c r="AH121">
-        <v>34205</v>
+        <v>34438</v>
       </c>
       <c r="AI121">
-        <v>75669</v>
+        <v>75718</v>
       </c>
       <c r="AJ121">
-        <v>360587</v>
+        <v>359962</v>
       </c>
       <c r="AK121">
-        <v>180467</v>
+        <v>180547</v>
       </c>
       <c r="AL121">
         <v>5272</v>
       </c>
       <c r="AM121">
-        <v>175195</v>
+        <v>175275</v>
       </c>
       <c r="AN121">
         <v>13</v>
       </c>
       <c r="AO121">
-        <v>174107</v>
+        <v>173403</v>
       </c>
       <c r="AP121">
         <v>286</v>
@@ -6723,7 +6732,269 @@
       </c>
     </row>
     <row r="122" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A122" s="14"/>
+      <c r="A122" s="14">
+        <v>43281</v>
+      </c>
+      <c r="B122">
+        <v>4011521</v>
+      </c>
+      <c r="C122">
+        <v>20160</v>
+      </c>
+      <c r="D122">
+        <v>1839</v>
+      </c>
+      <c r="E122">
+        <v>221</v>
+      </c>
+      <c r="F122">
+        <v>6478</v>
+      </c>
+      <c r="G122">
+        <v>5</v>
+      </c>
+      <c r="H122">
+        <v>11618</v>
+      </c>
+      <c r="I122">
+        <v>741560</v>
+      </c>
+      <c r="J122">
+        <v>8420</v>
+      </c>
+      <c r="K122">
+        <v>1684</v>
+      </c>
+      <c r="L122">
+        <v>34714</v>
+      </c>
+      <c r="M122">
+        <v>2265</v>
+      </c>
+      <c r="N122">
+        <v>5408</v>
+      </c>
+      <c r="O122">
+        <v>90</v>
+      </c>
+      <c r="P122">
+        <v>2056</v>
+      </c>
+      <c r="Q122">
+        <v>461531</v>
+      </c>
+      <c r="R122">
+        <v>23224</v>
+      </c>
+      <c r="S122">
+        <v>200685</v>
+      </c>
+      <c r="T122">
+        <v>1273</v>
+      </c>
+      <c r="U122">
+        <v>210</v>
+      </c>
+      <c r="V122">
+        <v>2576232</v>
+      </c>
+      <c r="W122">
+        <v>5884</v>
+      </c>
+      <c r="X122">
+        <v>5018</v>
+      </c>
+      <c r="Y122">
+        <v>48841</v>
+      </c>
+      <c r="Z122">
+        <v>16953</v>
+      </c>
+      <c r="AA122">
+        <v>248958</v>
+      </c>
+      <c r="AB122">
+        <v>1609075</v>
+      </c>
+      <c r="AC122">
+        <v>641503</v>
+      </c>
+      <c r="AD122">
+        <v>324464</v>
+      </c>
+      <c r="AE122">
+        <v>177817</v>
+      </c>
+      <c r="AF122">
+        <v>88</v>
+      </c>
+      <c r="AG122">
+        <v>21540</v>
+      </c>
+      <c r="AH122">
+        <v>37063</v>
+      </c>
+      <c r="AI122">
+        <v>87955</v>
+      </c>
+      <c r="AJ122">
+        <v>349105</v>
+      </c>
+      <c r="AK122">
+        <v>174800</v>
+      </c>
+      <c r="AL122">
+        <v>5563</v>
+      </c>
+      <c r="AM122">
+        <v>169237</v>
+      </c>
+      <c r="AN122">
+        <v>11</v>
+      </c>
+      <c r="AO122">
+        <v>169166</v>
+      </c>
+      <c r="AP122">
+        <v>255</v>
+      </c>
+      <c r="AQ122">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="123" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A123" s="14">
+        <v>43646</v>
+      </c>
+      <c r="B123">
+        <v>4470528</v>
+      </c>
+      <c r="C123">
+        <v>25339</v>
+      </c>
+      <c r="D123">
+        <v>1705</v>
+      </c>
+      <c r="E123">
+        <v>274</v>
+      </c>
+      <c r="F123">
+        <v>6557</v>
+      </c>
+      <c r="G123">
+        <v>6</v>
+      </c>
+      <c r="H123">
+        <v>16797</v>
+      </c>
+      <c r="I123">
+        <v>812696</v>
+      </c>
+      <c r="J123">
+        <v>8243</v>
+      </c>
+      <c r="K123">
+        <v>1579</v>
+      </c>
+      <c r="L123">
+        <v>33193</v>
+      </c>
+      <c r="M123">
+        <v>2505</v>
+      </c>
+      <c r="N123">
+        <v>5092</v>
+      </c>
+      <c r="O123">
+        <v>85</v>
+      </c>
+      <c r="P123">
+        <v>1910</v>
+      </c>
+      <c r="Q123">
+        <v>518874</v>
+      </c>
+      <c r="R123">
+        <v>28039</v>
+      </c>
+      <c r="S123">
+        <v>211808</v>
+      </c>
+      <c r="T123">
+        <v>1166</v>
+      </c>
+      <c r="U123">
+        <v>201</v>
+      </c>
+      <c r="V123">
+        <v>2944843</v>
+      </c>
+      <c r="W123">
+        <v>4857</v>
+      </c>
+      <c r="X123">
+        <v>4610</v>
+      </c>
+      <c r="Y123">
+        <v>45923</v>
+      </c>
+      <c r="Z123">
+        <v>16878</v>
+      </c>
+      <c r="AA123">
+        <v>329483</v>
+      </c>
+      <c r="AB123">
+        <v>1850715</v>
+      </c>
+      <c r="AC123">
+        <v>692376</v>
+      </c>
+      <c r="AD123">
+        <v>351495</v>
+      </c>
+      <c r="AE123">
+        <v>189707</v>
+      </c>
+      <c r="AF123">
+        <v>22</v>
+      </c>
+      <c r="AG123">
+        <v>22967</v>
+      </c>
+      <c r="AH123">
+        <v>36695</v>
+      </c>
+      <c r="AI123">
+        <v>102104</v>
+      </c>
+      <c r="AJ123">
+        <v>336155</v>
+      </c>
+      <c r="AK123">
+        <v>169947</v>
+      </c>
+      <c r="AL123">
+        <v>5211</v>
+      </c>
+      <c r="AM123">
+        <v>164737</v>
+      </c>
+      <c r="AN123">
+        <v>7</v>
+      </c>
+      <c r="AO123">
+        <v>161485</v>
+      </c>
+      <c r="AP123">
+        <v>267</v>
+      </c>
+      <c r="AQ123">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="124" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A124" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
